--- a/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB28225F-C3FE-4234-B742-B1C64A3873A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BE1FFE-5017-49C2-A6A4-F2CF4ED24E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F55ADE3D-36C7-40D9-843F-FD61B4E80711}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4AABFE7-DFDF-461D-84C2-048C8D32A6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>94,59%</t>
   </si>
   <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>13,62%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>18,24%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>67,93%</t>
   </si>
   <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,103 +365,109 @@
     <t>24,81%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>13,08%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>86,92%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B17E7-F617-429F-9020-8E4D3158874F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD038061-F2F3-4DE6-B094-E236B6D6AD8E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,7 +1829,7 @@
         <v>771</v>
       </c>
       <c r="D20" s="7">
-        <v>524655</v>
+        <v>524656</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1874,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1936,7 +1942,7 @@
         <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1309</v>
@@ -1945,13 +1951,13 @@
         <v>826960</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1861</v>
@@ -1960,13 +1966,13 @@
         <v>1311541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>2899570</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4052</v>
@@ -1996,13 +2002,13 @@
         <v>2977298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6875</v>
@@ -2011,13 +2017,13 @@
         <v>5876868</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BE1FFE-5017-49C2-A6A4-F2CF4ED24E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8837FEE-D0FF-47E1-9FCF-CC7FEBD442C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4AABFE7-DFDF-461D-84C2-048C8D32A6CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A31094BA-8FE4-4DC2-80C1-B4F3E6459C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD038061-F2F3-4DE6-B094-E236B6D6AD8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10F079B-D6C7-4AB4-A9A6-754630CC5917}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8837FEE-D0FF-47E1-9FCF-CC7FEBD442C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1531669-002A-46EE-BA78-13B8CA276083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A31094BA-8FE4-4DC2-80C1-B4F3E6459C3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3E3D99F-A77D-49B1-BC61-90E0226A96E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>94,59%</t>
   </si>
   <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>13,62%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>18,24%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>67,93%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,103 @@
     <t>24,81%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>13,08%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>86,92%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10F079B-D6C7-4AB4-A9A6-754630CC5917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84480C3F-0855-4FF3-A33E-B706FAC52835}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1829,7 +1823,7 @@
         <v>771</v>
       </c>
       <c r="D20" s="7">
-        <v>524656</v>
+        <v>524655</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1880,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1942,7 +1936,7 @@
         <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>1309</v>
@@ -1951,13 +1945,13 @@
         <v>826960</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1861</v>
@@ -1966,13 +1960,13 @@
         <v>1311541</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>2899570</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4052</v>
@@ -2002,13 +1996,13 @@
         <v>2977298</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6875</v>
@@ -2017,13 +2011,13 @@
         <v>5876868</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1531669-002A-46EE-BA78-13B8CA276083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6074263-D64C-4F8C-9C8F-485A07AACC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3E3D99F-A77D-49B1-BC61-90E0226A96E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E7213D71-1294-4431-80B6-9A085B8E3120}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,403 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84480C3F-0855-4FF3-A33E-B706FAC52835}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DCD428-89EA-44D2-A285-3E21EB1E3748}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>15039</v>
+        <v>14972</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>24596</v>
+        <v>21717</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>39634</v>
+        <v>36689</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1111,7 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>362640</v>
+        <v>385015</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1126,7 @@
         <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>330361</v>
+        <v>291483</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1141,7 @@
         <v>357</v>
       </c>
       <c r="N5" s="7">
-        <v>693002</v>
+        <v>676498</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1162,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1177,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1192,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1215,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>25829</v>
+        <v>26551</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1230,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>43261</v>
+        <v>39195</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1245,7 @@
         <v>58</v>
       </c>
       <c r="N7" s="7">
-        <v>69090</v>
+        <v>65746</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1266,7 @@
         <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>402567</v>
+        <v>396996</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1281,7 @@
         <v>422</v>
       </c>
       <c r="I8" s="7">
-        <v>455316</v>
+        <v>472309</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1296,7 @@
         <v>704</v>
       </c>
       <c r="N8" s="7">
-        <v>857883</v>
+        <v>869305</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1317,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1332,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1347,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1370,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>62770</v>
+        <v>59921</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,7 +1385,7 @@
         <v>126</v>
       </c>
       <c r="I10" s="7">
-        <v>86720</v>
+        <v>79895</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1337,7 +1400,7 @@
         <v>181</v>
       </c>
       <c r="N10" s="7">
-        <v>149490</v>
+        <v>139816</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1358,7 +1421,7 @@
         <v>491</v>
       </c>
       <c r="D11" s="7">
-        <v>494482</v>
+        <v>476417</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1373,7 +1436,7 @@
         <v>720</v>
       </c>
       <c r="I11" s="7">
-        <v>496756</v>
+        <v>462573</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1388,7 +1451,7 @@
         <v>1211</v>
       </c>
       <c r="N11" s="7">
-        <v>991237</v>
+        <v>938990</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1409,7 +1472,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1487,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1502,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1462,7 +1525,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>98578</v>
+        <v>93733</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1477,7 +1540,7 @@
         <v>251</v>
       </c>
       <c r="I13" s="7">
-        <v>164130</v>
+        <v>151207</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1492,7 +1555,7 @@
         <v>345</v>
       </c>
       <c r="N13" s="7">
-        <v>262708</v>
+        <v>244941</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1513,7 +1576,7 @@
         <v>571</v>
       </c>
       <c r="D14" s="7">
-        <v>625412</v>
+        <v>794053</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1528,7 +1591,7 @@
         <v>889</v>
       </c>
       <c r="I14" s="7">
-        <v>582724</v>
+        <v>561291</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1543,7 +1606,7 @@
         <v>1460</v>
       </c>
       <c r="N14" s="7">
-        <v>1208136</v>
+        <v>1355344</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1564,7 +1627,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1642,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1657,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1617,7 +1680,7 @@
         <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>109266</v>
+        <v>100735</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1632,7 +1695,7 @@
         <v>312</v>
       </c>
       <c r="I16" s="7">
-        <v>190425</v>
+        <v>173266</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1647,7 +1710,7 @@
         <v>431</v>
       </c>
       <c r="N16" s="7">
-        <v>299691</v>
+        <v>274001</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1668,7 +1731,7 @@
         <v>543</v>
       </c>
       <c r="D17" s="7">
-        <v>489814</v>
+        <v>459469</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1683,7 +1746,7 @@
         <v>688</v>
       </c>
       <c r="I17" s="7">
-        <v>403333</v>
+        <v>371797</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1698,7 +1761,7 @@
         <v>1231</v>
       </c>
       <c r="N17" s="7">
-        <v>893146</v>
+        <v>831266</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1719,7 +1782,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1797,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593758</v>
+        <v>545063</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1812,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192837</v>
+        <v>1105267</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c r="D19" s="7">
-        <v>173099</v>
+        <v>76105</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1784,10 +1847,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>567</v>
+        <v>252</v>
       </c>
       <c r="I19" s="7">
-        <v>317829</v>
+        <v>126962</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1799,10 +1862,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>824</v>
+        <v>372</v>
       </c>
       <c r="N19" s="7">
-        <v>490928</v>
+        <v>203066</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1820,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>771</v>
+        <v>450</v>
       </c>
       <c r="D20" s="7">
-        <v>524655</v>
+        <v>292060</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1835,10 +1898,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>1141</v>
+        <v>575</v>
       </c>
       <c r="I20" s="7">
-        <v>708808</v>
+        <v>481406</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1850,10 +1913,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1912</v>
+        <v>1025</v>
       </c>
       <c r="N20" s="7">
-        <v>1233464</v>
+        <v>773467</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1871,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>552</v>
+        <v>137</v>
       </c>
       <c r="D22" s="7">
-        <v>484581</v>
+        <v>81780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1309</v>
+        <v>315</v>
       </c>
       <c r="I22" s="7">
-        <v>826960</v>
+        <v>155682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1861</v>
+        <v>452</v>
       </c>
       <c r="N22" s="7">
-        <v>1311541</v>
+        <v>237462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2823</v>
+        <v>321</v>
       </c>
       <c r="D23" s="7">
-        <v>2899570</v>
+        <v>200979</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>4052</v>
+        <v>566</v>
       </c>
       <c r="I23" s="7">
-        <v>2977298</v>
+        <v>270149</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>6875</v>
+        <v>887</v>
       </c>
       <c r="N23" s="7">
-        <v>5876868</v>
+        <v>471128</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>552</v>
+      </c>
+      <c r="D25" s="7">
+        <v>453796</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1309</v>
+      </c>
+      <c r="I25" s="7">
+        <v>747925</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1861</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1201720</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2823</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3004991</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4052</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2911007</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6875</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5915999</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458787</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5361</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804258</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658932</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8736</v>
       </c>
-      <c r="N24" s="7">
-        <v>7188409</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7117719</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
